--- a/data/Agrifo.xlsx
+++ b/data/Agrifo.xlsx
@@ -1,17 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swopil\Desktop\ViewFinders\Visualizer\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2349A691-A0C4-4576-8D3E-C9F16CC519D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GenderWiseAge" sheetId="1" r:id="rId1"/>
     <sheet name="Geography" sheetId="2" r:id="rId2"/>
     <sheet name="view" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2232,8 +2250,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2270,6 +2288,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2316,7 +2342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2348,9 +2374,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2382,6 +2426,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2557,14 +2619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2575,7 +2637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2586,7 +2648,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2603,14 +2665,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2627,7 +2689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2644,7 +2706,7 @@
         <v>31.57</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2658,10 +2720,10 @@
         <v>163</v>
       </c>
       <c r="E3">
-        <v>25.67000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>25.670000000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2675,10 +2737,10 @@
         <v>40</v>
       </c>
       <c r="E4">
-        <v>7.960000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>7.9600000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2701,14 +2763,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C721"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2719,7 +2785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2730,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2741,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2752,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2763,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2774,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2785,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2796,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2807,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2818,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2829,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2840,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2851,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2862,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2873,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2884,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2895,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2906,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2917,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2928,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2939,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2950,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2961,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2972,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -2983,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2994,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -3005,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -3016,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -3027,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -3038,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -3049,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -3060,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -3071,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -3082,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -3093,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3104,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -3115,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -3126,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3137,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -3148,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -3159,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -3170,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -3181,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -3192,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -3203,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -3214,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -3225,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -3236,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -3247,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -3258,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -3269,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -3280,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -3291,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -3302,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -3313,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -3324,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -3335,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -3346,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -3357,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -3368,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -3379,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -3390,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -3401,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -3412,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -3423,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -3434,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -3445,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -3456,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -3467,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -3478,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -3489,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -3500,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -3511,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -3522,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -3533,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -3544,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -3555,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -3566,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -3577,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -3588,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -3599,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -3610,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -3621,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -3632,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -3643,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>101</v>
       </c>
@@ -3654,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -3665,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -3676,7 +3742,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -3687,7 +3753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>105</v>
       </c>
@@ -3698,7 +3764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>106</v>
       </c>
@@ -3709,7 +3775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>107</v>
       </c>
@@ -3720,7 +3786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -3731,7 +3797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -3742,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -3753,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>111</v>
       </c>
@@ -3764,7 +3830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -3775,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -3786,7 +3852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>114</v>
       </c>
@@ -3797,7 +3863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>115</v>
       </c>
@@ -3808,7 +3874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>116</v>
       </c>
@@ -3819,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -3830,7 +3896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>118</v>
       </c>
@@ -3841,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>119</v>
       </c>
@@ -3852,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>120</v>
       </c>
@@ -3863,7 +3929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>121</v>
       </c>
@@ -3874,7 +3940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -3885,7 +3951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>123</v>
       </c>
@@ -3896,7 +3962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>124</v>
       </c>
@@ -3907,7 +3973,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -3918,7 +3984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -3929,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>127</v>
       </c>
@@ -3940,7 +4006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -3951,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>129</v>
       </c>
@@ -3962,7 +4028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -3973,7 +4039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>131</v>
       </c>
@@ -3984,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>132</v>
       </c>
@@ -3995,7 +4061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>133</v>
       </c>
@@ -4006,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>134</v>
       </c>
@@ -4017,7 +4083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>135</v>
       </c>
@@ -4028,7 +4094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -4039,7 +4105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>137</v>
       </c>
@@ -4050,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>138</v>
       </c>
@@ -4061,7 +4127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>139</v>
       </c>
@@ -4072,7 +4138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>140</v>
       </c>
@@ -4083,7 +4149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>141</v>
       </c>
@@ -4094,7 +4160,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -4105,7 +4171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>143</v>
       </c>
@@ -4116,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>144</v>
       </c>
@@ -4127,7 +4193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>145</v>
       </c>
@@ -4138,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>146</v>
       </c>
@@ -4149,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>147</v>
       </c>
@@ -4160,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>148</v>
       </c>
@@ -4171,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>149</v>
       </c>
@@ -4182,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>150</v>
       </c>
@@ -4193,7 +4259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>151</v>
       </c>
@@ -4204,7 +4270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>152</v>
       </c>
@@ -4215,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>153</v>
       </c>
@@ -4226,7 +4292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>154</v>
       </c>
@@ -4237,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>155</v>
       </c>
@@ -4248,7 +4314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>156</v>
       </c>
@@ -4259,7 +4325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>157</v>
       </c>
@@ -4270,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>158</v>
       </c>
@@ -4281,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>159</v>
       </c>
@@ -4292,7 +4358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>160</v>
       </c>
@@ -4303,7 +4369,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>161</v>
       </c>
@@ -4314,7 +4380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>162</v>
       </c>
@@ -4325,7 +4391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>163</v>
       </c>
@@ -4336,7 +4402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>164</v>
       </c>
@@ -4347,7 +4413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>165</v>
       </c>
@@ -4358,7 +4424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>166</v>
       </c>
@@ -4369,7 +4435,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>167</v>
       </c>
@@ -4380,7 +4446,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>168</v>
       </c>
@@ -4391,7 +4457,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>169</v>
       </c>
@@ -4402,7 +4468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>170</v>
       </c>
@@ -4413,7 +4479,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>171</v>
       </c>
@@ -4424,7 +4490,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>172</v>
       </c>
@@ -4435,7 +4501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>173</v>
       </c>
@@ -4446,7 +4512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>174</v>
       </c>
@@ -4457,7 +4523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>175</v>
       </c>
@@ -4468,7 +4534,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>176</v>
       </c>
@@ -4479,7 +4545,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>177</v>
       </c>
@@ -4490,7 +4556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>178</v>
       </c>
@@ -4501,7 +4567,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>179</v>
       </c>
@@ -4512,7 +4578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>180</v>
       </c>
@@ -4523,7 +4589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>181</v>
       </c>
@@ -4534,7 +4600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>182</v>
       </c>
@@ -4545,7 +4611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>183</v>
       </c>
@@ -4556,7 +4622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>184</v>
       </c>
@@ -4567,7 +4633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>185</v>
       </c>
@@ -4578,7 +4644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>186</v>
       </c>
@@ -4589,7 +4655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>187</v>
       </c>
@@ -4600,7 +4666,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>188</v>
       </c>
@@ -4611,7 +4677,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>189</v>
       </c>
@@ -4622,7 +4688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>190</v>
       </c>
@@ -4633,7 +4699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>191</v>
       </c>
@@ -4644,7 +4710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>192</v>
       </c>
@@ -4655,7 +4721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>193</v>
       </c>
@@ -4666,7 +4732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>194</v>
       </c>
@@ -4677,7 +4743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>195</v>
       </c>
@@ -4688,7 +4754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>196</v>
       </c>
@@ -4699,7 +4765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>197</v>
       </c>
@@ -4710,7 +4776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>198</v>
       </c>
@@ -4721,7 +4787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>199</v>
       </c>
@@ -4732,7 +4798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>200</v>
       </c>
@@ -4743,7 +4809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>201</v>
       </c>
@@ -4754,7 +4820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>202</v>
       </c>
@@ -4765,7 +4831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>203</v>
       </c>
@@ -4776,7 +4842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>204</v>
       </c>
@@ -4787,7 +4853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>205</v>
       </c>
@@ -4798,7 +4864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>206</v>
       </c>
@@ -4809,7 +4875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>207</v>
       </c>
@@ -4820,7 +4886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>208</v>
       </c>
@@ -4831,7 +4897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>209</v>
       </c>
@@ -4842,7 +4908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>210</v>
       </c>
@@ -4853,7 +4919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>211</v>
       </c>
@@ -4864,7 +4930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>212</v>
       </c>
@@ -4875,7 +4941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>213</v>
       </c>
@@ -4886,7 +4952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>214</v>
       </c>
@@ -4897,7 +4963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>215</v>
       </c>
@@ -4908,7 +4974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>216</v>
       </c>
@@ -4919,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>217</v>
       </c>
@@ -4930,7 +4996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>218</v>
       </c>
@@ -4941,7 +5007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>219</v>
       </c>
@@ -4952,7 +5018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>220</v>
       </c>
@@ -4963,7 +5029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>221</v>
       </c>
@@ -4974,7 +5040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>222</v>
       </c>
@@ -4985,7 +5051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>223</v>
       </c>
@@ -4996,7 +5062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>224</v>
       </c>
@@ -5007,7 +5073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>225</v>
       </c>
@@ -5018,7 +5084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>226</v>
       </c>
@@ -5029,7 +5095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>227</v>
       </c>
@@ -5040,7 +5106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>228</v>
       </c>
@@ -5051,7 +5117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>229</v>
       </c>
@@ -5062,7 +5128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>230</v>
       </c>
@@ -5073,7 +5139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>231</v>
       </c>
@@ -5084,7 +5150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>232</v>
       </c>
@@ -5095,7 +5161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>233</v>
       </c>
@@ -5106,7 +5172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>234</v>
       </c>
@@ -5117,7 +5183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>235</v>
       </c>
@@ -5128,7 +5194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>236</v>
       </c>
@@ -5139,7 +5205,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>237</v>
       </c>
@@ -5150,7 +5216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>238</v>
       </c>
@@ -5161,7 +5227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>239</v>
       </c>
@@ -5172,7 +5238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>240</v>
       </c>
@@ -5183,7 +5249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>241</v>
       </c>
@@ -5194,7 +5260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>242</v>
       </c>
@@ -5205,7 +5271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>243</v>
       </c>
@@ -5216,7 +5282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>244</v>
       </c>
@@ -5227,7 +5293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>245</v>
       </c>
@@ -5238,7 +5304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>246</v>
       </c>
@@ -5249,7 +5315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>247</v>
       </c>
@@ -5260,7 +5326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>248</v>
       </c>
@@ -5271,7 +5337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>249</v>
       </c>
@@ -5282,7 +5348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>250</v>
       </c>
@@ -5293,7 +5359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>251</v>
       </c>
@@ -5304,7 +5370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>252</v>
       </c>
@@ -5315,7 +5381,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>253</v>
       </c>
@@ -5326,7 +5392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>254</v>
       </c>
@@ -5337,7 +5403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>255</v>
       </c>
@@ -5348,7 +5414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>256</v>
       </c>
@@ -5359,7 +5425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>257</v>
       </c>
@@ -5370,7 +5436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>258</v>
       </c>
@@ -5381,7 +5447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>259</v>
       </c>
@@ -5392,7 +5458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>260</v>
       </c>
@@ -5403,7 +5469,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>261</v>
       </c>
@@ -5414,7 +5480,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>262</v>
       </c>
@@ -5425,7 +5491,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>263</v>
       </c>
@@ -5436,7 +5502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>264</v>
       </c>
@@ -5447,7 +5513,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>265</v>
       </c>
@@ -5458,7 +5524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>266</v>
       </c>
@@ -5469,7 +5535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>267</v>
       </c>
@@ -5480,7 +5546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>268</v>
       </c>
@@ -5491,7 +5557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>269</v>
       </c>
@@ -5502,7 +5568,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>270</v>
       </c>
@@ -5513,7 +5579,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>271</v>
       </c>
@@ -5524,7 +5590,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>272</v>
       </c>
@@ -5535,7 +5601,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>273</v>
       </c>
@@ -5546,7 +5612,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>274</v>
       </c>
@@ -5557,7 +5623,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>275</v>
       </c>
@@ -5568,7 +5634,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>276</v>
       </c>
@@ -5579,7 +5645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>277</v>
       </c>
@@ -5590,7 +5656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>278</v>
       </c>
@@ -5601,7 +5667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>279</v>
       </c>
@@ -5612,7 +5678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>280</v>
       </c>
@@ -5623,7 +5689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>281</v>
       </c>
@@ -5634,7 +5700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>282</v>
       </c>
@@ -5645,7 +5711,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>283</v>
       </c>
@@ -5656,7 +5722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>284</v>
       </c>
@@ -5667,7 +5733,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>285</v>
       </c>
@@ -5678,7 +5744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>286</v>
       </c>
@@ -5689,7 +5755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>287</v>
       </c>
@@ -5700,7 +5766,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>288</v>
       </c>
@@ -5711,7 +5777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>289</v>
       </c>
@@ -5722,7 +5788,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>290</v>
       </c>
@@ -5733,7 +5799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>291</v>
       </c>
@@ -5744,7 +5810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>292</v>
       </c>
@@ -5755,7 +5821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>293</v>
       </c>
@@ -5766,7 +5832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>294</v>
       </c>
@@ -5777,7 +5843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>295</v>
       </c>
@@ -5788,7 +5854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>296</v>
       </c>
@@ -5799,7 +5865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>297</v>
       </c>
@@ -5810,7 +5876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>298</v>
       </c>
@@ -5821,7 +5887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>299</v>
       </c>
@@ -5832,7 +5898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>300</v>
       </c>
@@ -5843,7 +5909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>301</v>
       </c>
@@ -5854,7 +5920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>302</v>
       </c>
@@ -5865,7 +5931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>303</v>
       </c>
@@ -5876,7 +5942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>304</v>
       </c>
@@ -5887,7 +5953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>305</v>
       </c>
@@ -5898,7 +5964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>306</v>
       </c>
@@ -5909,7 +5975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>307</v>
       </c>
@@ -5920,7 +5986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>308</v>
       </c>
@@ -5931,7 +5997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>309</v>
       </c>
@@ -5942,7 +6008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>310</v>
       </c>
@@ -5953,7 +6019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>311</v>
       </c>
@@ -5964,7 +6030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>312</v>
       </c>
@@ -5975,7 +6041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>313</v>
       </c>
@@ -5986,7 +6052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>314</v>
       </c>
@@ -5997,7 +6063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>315</v>
       </c>
@@ -6008,7 +6074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>316</v>
       </c>
@@ -6019,7 +6085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>317</v>
       </c>
@@ -6030,7 +6096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>318</v>
       </c>
@@ -6041,7 +6107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>319</v>
       </c>
@@ -6052,7 +6118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>320</v>
       </c>
@@ -6063,7 +6129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>321</v>
       </c>
@@ -6074,7 +6140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>322</v>
       </c>
@@ -6085,7 +6151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>323</v>
       </c>
@@ -6096,7 +6162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>324</v>
       </c>
@@ -6107,7 +6173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>325</v>
       </c>
@@ -6118,7 +6184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>326</v>
       </c>
@@ -6129,7 +6195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>327</v>
       </c>
@@ -6140,7 +6206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>328</v>
       </c>
@@ -6151,7 +6217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>329</v>
       </c>
@@ -6162,7 +6228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>330</v>
       </c>
@@ -6173,7 +6239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>331</v>
       </c>
@@ -6184,7 +6250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>332</v>
       </c>
@@ -6195,7 +6261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>333</v>
       </c>
@@ -6206,7 +6272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>334</v>
       </c>
@@ -6217,7 +6283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>335</v>
       </c>
@@ -6228,7 +6294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>336</v>
       </c>
@@ -6239,7 +6305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>337</v>
       </c>
@@ -6250,7 +6316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>338</v>
       </c>
@@ -6261,7 +6327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>339</v>
       </c>
@@ -6272,7 +6338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>340</v>
       </c>
@@ -6283,7 +6349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>341</v>
       </c>
@@ -6294,7 +6360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>342</v>
       </c>
@@ -6305,7 +6371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>343</v>
       </c>
@@ -6316,7 +6382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>344</v>
       </c>
@@ -6327,7 +6393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>345</v>
       </c>
@@ -6338,7 +6404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>346</v>
       </c>
@@ -6349,7 +6415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>347</v>
       </c>
@@ -6360,7 +6426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>348</v>
       </c>
@@ -6371,7 +6437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>349</v>
       </c>
@@ -6382,7 +6448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>350</v>
       </c>
@@ -6393,7 +6459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>351</v>
       </c>
@@ -6404,7 +6470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>352</v>
       </c>
@@ -6415,7 +6481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>353</v>
       </c>
@@ -6426,7 +6492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>354</v>
       </c>
@@ -6437,7 +6503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>355</v>
       </c>
@@ -6448,7 +6514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>356</v>
       </c>
@@ -6459,7 +6525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>357</v>
       </c>
@@ -6470,7 +6536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>358</v>
       </c>
@@ -6481,7 +6547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>359</v>
       </c>
@@ -6492,7 +6558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>360</v>
       </c>
@@ -6503,7 +6569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>361</v>
       </c>
@@ -6514,7 +6580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>362</v>
       </c>
@@ -6525,7 +6591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>363</v>
       </c>
@@ -6536,7 +6602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>364</v>
       </c>
@@ -6547,7 +6613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>365</v>
       </c>
@@ -6558,7 +6624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>366</v>
       </c>
@@ -6569,7 +6635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>367</v>
       </c>
@@ -6580,7 +6646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>368</v>
       </c>
@@ -6591,7 +6657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>369</v>
       </c>
@@ -6602,7 +6668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>370</v>
       </c>
@@ -6613,7 +6679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>371</v>
       </c>
@@ -6624,7 +6690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>372</v>
       </c>
@@ -6635,7 +6701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>373</v>
       </c>
@@ -6646,7 +6712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>374</v>
       </c>
@@ -6657,7 +6723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>375</v>
       </c>
@@ -6668,7 +6734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>376</v>
       </c>
@@ -6679,7 +6745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>377</v>
       </c>
@@ -6690,7 +6756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>378</v>
       </c>
@@ -6701,7 +6767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>379</v>
       </c>
@@ -6712,7 +6778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>380</v>
       </c>
@@ -6723,7 +6789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>381</v>
       </c>
@@ -6734,7 +6800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>382</v>
       </c>
@@ -6745,7 +6811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>383</v>
       </c>
@@ -6756,7 +6822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>384</v>
       </c>
@@ -6767,7 +6833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>385</v>
       </c>
@@ -6778,7 +6844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>386</v>
       </c>
@@ -6789,7 +6855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>387</v>
       </c>
@@ -6800,7 +6866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>388</v>
       </c>
@@ -6811,7 +6877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>389</v>
       </c>
@@ -6822,7 +6888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>390</v>
       </c>
@@ -6833,7 +6899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>391</v>
       </c>
@@ -6844,7 +6910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>392</v>
       </c>
@@ -6855,7 +6921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>393</v>
       </c>
@@ -6866,7 +6932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>394</v>
       </c>
@@ -6877,7 +6943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>395</v>
       </c>
@@ -6888,7 +6954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>396</v>
       </c>
@@ -6899,7 +6965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>397</v>
       </c>
@@ -6910,7 +6976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>398</v>
       </c>
@@ -6921,7 +6987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>399</v>
       </c>
@@ -6932,7 +6998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>400</v>
       </c>
@@ -6943,7 +7009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>401</v>
       </c>
@@ -6954,7 +7020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>402</v>
       </c>
@@ -6965,7 +7031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>403</v>
       </c>
@@ -6976,7 +7042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>404</v>
       </c>
@@ -6987,7 +7053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>405</v>
       </c>
@@ -6998,7 +7064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>406</v>
       </c>
@@ -7009,7 +7075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>407</v>
       </c>
@@ -7020,7 +7086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>408</v>
       </c>
@@ -7031,7 +7097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>409</v>
       </c>
@@ -7042,7 +7108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>410</v>
       </c>
@@ -7053,7 +7119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>411</v>
       </c>
@@ -7064,7 +7130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>412</v>
       </c>
@@ -7075,7 +7141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>413</v>
       </c>
@@ -7086,7 +7152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>414</v>
       </c>
@@ -7097,7 +7163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>415</v>
       </c>
@@ -7108,7 +7174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>416</v>
       </c>
@@ -7119,7 +7185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>417</v>
       </c>
@@ -7130,7 +7196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>418</v>
       </c>
@@ -7141,7 +7207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>419</v>
       </c>
@@ -7152,7 +7218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>420</v>
       </c>
@@ -7163,7 +7229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>421</v>
       </c>
@@ -7174,7 +7240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>422</v>
       </c>
@@ -7185,7 +7251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>423</v>
       </c>
@@ -7196,7 +7262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>424</v>
       </c>
@@ -7207,7 +7273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>425</v>
       </c>
@@ -7218,7 +7284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>426</v>
       </c>
@@ -7229,7 +7295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>427</v>
       </c>
@@ -7240,7 +7306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>428</v>
       </c>
@@ -7251,7 +7317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>429</v>
       </c>
@@ -7262,7 +7328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>430</v>
       </c>
@@ -7273,7 +7339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>431</v>
       </c>
@@ -7284,7 +7350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>432</v>
       </c>
@@ -7295,7 +7361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>433</v>
       </c>
@@ -7306,7 +7372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>434</v>
       </c>
@@ -7317,7 +7383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>435</v>
       </c>
@@ -7328,7 +7394,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>436</v>
       </c>
@@ -7339,7 +7405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>437</v>
       </c>
@@ -7350,7 +7416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>438</v>
       </c>
@@ -7361,7 +7427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>439</v>
       </c>
@@ -7372,7 +7438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>440</v>
       </c>
@@ -7383,7 +7449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>441</v>
       </c>
@@ -7394,7 +7460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>442</v>
       </c>
@@ -7405,7 +7471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>443</v>
       </c>
@@ -7416,7 +7482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>444</v>
       </c>
@@ -7427,7 +7493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>445</v>
       </c>
@@ -7438,7 +7504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>446</v>
       </c>
@@ -7449,7 +7515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>447</v>
       </c>
@@ -7460,7 +7526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>448</v>
       </c>
@@ -7471,7 +7537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>449</v>
       </c>
@@ -7482,7 +7548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>450</v>
       </c>
@@ -7493,7 +7559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>451</v>
       </c>
@@ -7504,7 +7570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>452</v>
       </c>
@@ -7515,7 +7581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>453</v>
       </c>
@@ -7526,7 +7592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>454</v>
       </c>
@@ -7537,7 +7603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>455</v>
       </c>
@@ -7548,7 +7614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>456</v>
       </c>
@@ -7559,7 +7625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>457</v>
       </c>
@@ -7570,7 +7636,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>458</v>
       </c>
@@ -7581,7 +7647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>459</v>
       </c>
@@ -7592,7 +7658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>460</v>
       </c>
@@ -7603,7 +7669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>461</v>
       </c>
@@ -7614,7 +7680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>462</v>
       </c>
@@ -7625,7 +7691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>463</v>
       </c>
@@ -7636,7 +7702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>464</v>
       </c>
@@ -7647,7 +7713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>465</v>
       </c>
@@ -7658,7 +7724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>466</v>
       </c>
@@ -7669,7 +7735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>467</v>
       </c>
@@ -7680,7 +7746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>468</v>
       </c>
@@ -7691,7 +7757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>469</v>
       </c>
@@ -7702,7 +7768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>470</v>
       </c>
@@ -7713,7 +7779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>471</v>
       </c>
@@ -7724,7 +7790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>472</v>
       </c>
@@ -7735,7 +7801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>473</v>
       </c>
@@ -7746,7 +7812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>474</v>
       </c>
@@ -7757,7 +7823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>475</v>
       </c>
@@ -7768,7 +7834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>476</v>
       </c>
@@ -7779,7 +7845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>477</v>
       </c>
@@ -7790,7 +7856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>478</v>
       </c>
@@ -7801,7 +7867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>479</v>
       </c>
@@ -7812,7 +7878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>480</v>
       </c>
@@ -7823,7 +7889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>481</v>
       </c>
@@ -7834,7 +7900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>482</v>
       </c>
@@ -7845,7 +7911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>483</v>
       </c>
@@ -7856,7 +7922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>484</v>
       </c>
@@ -7867,7 +7933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>485</v>
       </c>
@@ -7878,7 +7944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>486</v>
       </c>
@@ -7889,7 +7955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>487</v>
       </c>
@@ -7900,7 +7966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>488</v>
       </c>
@@ -7911,7 +7977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>489</v>
       </c>
@@ -7922,7 +7988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>490</v>
       </c>
@@ -7933,7 +7999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>491</v>
       </c>
@@ -7944,7 +8010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>492</v>
       </c>
@@ -7955,7 +8021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>493</v>
       </c>
@@ -7966,7 +8032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>494</v>
       </c>
@@ -7977,7 +8043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>495</v>
       </c>
@@ -7988,7 +8054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>496</v>
       </c>
@@ -7999,7 +8065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>497</v>
       </c>
@@ -8010,7 +8076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>498</v>
       </c>
@@ -8021,7 +8087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>499</v>
       </c>
@@ -8032,7 +8098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>500</v>
       </c>
@@ -8043,7 +8109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>501</v>
       </c>
@@ -8054,7 +8120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>502</v>
       </c>
@@ -8065,7 +8131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>503</v>
       </c>
@@ -8076,7 +8142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>504</v>
       </c>
@@ -8087,7 +8153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>505</v>
       </c>
@@ -8098,7 +8164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>506</v>
       </c>
@@ -8109,7 +8175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>507</v>
       </c>
@@ -8120,7 +8186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>508</v>
       </c>
@@ -8131,7 +8197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>509</v>
       </c>
@@ -8142,7 +8208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>510</v>
       </c>
@@ -8153,7 +8219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>511</v>
       </c>
@@ -8164,7 +8230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>512</v>
       </c>
@@ -8175,7 +8241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>513</v>
       </c>
@@ -8186,7 +8252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>514</v>
       </c>
@@ -8197,7 +8263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>515</v>
       </c>
@@ -8208,7 +8274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>516</v>
       </c>
@@ -8219,7 +8285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>517</v>
       </c>
@@ -8230,7 +8296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>518</v>
       </c>
@@ -8241,7 +8307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>519</v>
       </c>
@@ -8252,7 +8318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>520</v>
       </c>
@@ -8263,7 +8329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>521</v>
       </c>
@@ -8274,7 +8340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>522</v>
       </c>
@@ -8285,7 +8351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>523</v>
       </c>
@@ -8296,7 +8362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>524</v>
       </c>
@@ -8307,7 +8373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>525</v>
       </c>
@@ -8318,7 +8384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>526</v>
       </c>
@@ -8329,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>527</v>
       </c>
@@ -8340,7 +8406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>528</v>
       </c>
@@ -8351,7 +8417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>529</v>
       </c>
@@ -8362,7 +8428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>530</v>
       </c>
@@ -8373,7 +8439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>531</v>
       </c>
@@ -8384,7 +8450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>532</v>
       </c>
@@ -8395,7 +8461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>533</v>
       </c>
@@ -8406,7 +8472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>534</v>
       </c>
@@ -8417,7 +8483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>535</v>
       </c>
@@ -8428,7 +8494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>536</v>
       </c>
@@ -8439,7 +8505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>537</v>
       </c>
@@ -8450,7 +8516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>538</v>
       </c>
@@ -8461,7 +8527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>539</v>
       </c>
@@ -8472,7 +8538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>540</v>
       </c>
@@ -8483,7 +8549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>541</v>
       </c>
@@ -8494,7 +8560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>542</v>
       </c>
@@ -8505,7 +8571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>543</v>
       </c>
@@ -8516,7 +8582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>544</v>
       </c>
@@ -8527,7 +8593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>545</v>
       </c>
@@ -8538,7 +8604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>546</v>
       </c>
@@ -8549,7 +8615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>547</v>
       </c>
@@ -8560,7 +8626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>548</v>
       </c>
@@ -8571,7 +8637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>549</v>
       </c>
@@ -8582,7 +8648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>550</v>
       </c>
@@ -8593,7 +8659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>551</v>
       </c>
@@ -8604,7 +8670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>552</v>
       </c>
@@ -8615,7 +8681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>553</v>
       </c>
@@ -8626,7 +8692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>554</v>
       </c>
@@ -8637,7 +8703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>555</v>
       </c>
@@ -8648,7 +8714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>556</v>
       </c>
@@ -8659,7 +8725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>557</v>
       </c>
@@ -8670,7 +8736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>558</v>
       </c>
@@ -8681,7 +8747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>559</v>
       </c>
@@ -8692,7 +8758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>560</v>
       </c>
@@ -8703,7 +8769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>561</v>
       </c>
@@ -8714,7 +8780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>562</v>
       </c>
@@ -8725,7 +8791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>563</v>
       </c>
@@ -8736,7 +8802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>564</v>
       </c>
@@ -8747,7 +8813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>565</v>
       </c>
@@ -8758,7 +8824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>566</v>
       </c>
@@ -8769,7 +8835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>567</v>
       </c>
@@ -8780,7 +8846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>568</v>
       </c>
@@ -8791,7 +8857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>569</v>
       </c>
@@ -8802,7 +8868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>570</v>
       </c>
@@ -8813,7 +8879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>571</v>
       </c>
@@ -8824,7 +8890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>572</v>
       </c>
@@ -8835,7 +8901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>573</v>
       </c>
@@ -8846,7 +8912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>574</v>
       </c>
@@ -8857,7 +8923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>575</v>
       </c>
@@ -8868,7 +8934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>576</v>
       </c>
@@ -8879,7 +8945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>577</v>
       </c>
@@ -8890,7 +8956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>578</v>
       </c>
@@ -8901,7 +8967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>579</v>
       </c>
@@ -8912,7 +8978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>580</v>
       </c>
@@ -8923,7 +8989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>581</v>
       </c>
@@ -8934,7 +9000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>582</v>
       </c>
@@ -8945,7 +9011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>583</v>
       </c>
@@ -8956,7 +9022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>584</v>
       </c>
@@ -8967,7 +9033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>585</v>
       </c>
@@ -8978,7 +9044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>586</v>
       </c>
@@ -8989,7 +9055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>587</v>
       </c>
@@ -9000,7 +9066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>588</v>
       </c>
@@ -9011,7 +9077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>589</v>
       </c>
@@ -9022,7 +9088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>590</v>
       </c>
@@ -9033,7 +9099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>591</v>
       </c>
@@ -9044,7 +9110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>592</v>
       </c>
@@ -9055,7 +9121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>593</v>
       </c>
@@ -9066,7 +9132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>594</v>
       </c>
@@ -9077,7 +9143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>595</v>
       </c>
@@ -9088,7 +9154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>596</v>
       </c>
@@ -9099,7 +9165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>597</v>
       </c>
@@ -9110,7 +9176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>598</v>
       </c>
@@ -9121,7 +9187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>599</v>
       </c>
@@ -9132,7 +9198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>600</v>
       </c>
@@ -9143,7 +9209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>601</v>
       </c>
@@ -9154,7 +9220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>602</v>
       </c>
@@ -9165,7 +9231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>603</v>
       </c>
@@ -9176,7 +9242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>604</v>
       </c>
@@ -9187,7 +9253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>605</v>
       </c>
@@ -9198,7 +9264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>606</v>
       </c>
@@ -9209,7 +9275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>607</v>
       </c>
@@ -9220,7 +9286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>608</v>
       </c>
@@ -9231,7 +9297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>609</v>
       </c>
@@ -9242,7 +9308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>610</v>
       </c>
@@ -9253,7 +9319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>611</v>
       </c>
@@ -9264,7 +9330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>612</v>
       </c>
@@ -9275,7 +9341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>613</v>
       </c>
@@ -9286,7 +9352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>614</v>
       </c>
@@ -9297,7 +9363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>615</v>
       </c>
@@ -9308,7 +9374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>616</v>
       </c>
@@ -9319,7 +9385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>617</v>
       </c>
@@ -9330,7 +9396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>618</v>
       </c>
@@ -9341,7 +9407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>619</v>
       </c>
@@ -9352,7 +9418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>620</v>
       </c>
@@ -9363,7 +9429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>621</v>
       </c>
@@ -9374,7 +9440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>622</v>
       </c>
@@ -9385,7 +9451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>623</v>
       </c>
@@ -9396,7 +9462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>624</v>
       </c>
@@ -9407,7 +9473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>625</v>
       </c>
@@ -9418,7 +9484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>626</v>
       </c>
@@ -9429,7 +9495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>627</v>
       </c>
@@ -9440,7 +9506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>628</v>
       </c>
@@ -9451,7 +9517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>629</v>
       </c>
@@ -9462,7 +9528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>630</v>
       </c>
@@ -9473,7 +9539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>631</v>
       </c>
@@ -9484,7 +9550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>632</v>
       </c>
@@ -9495,7 +9561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>633</v>
       </c>
@@ -9506,7 +9572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>634</v>
       </c>
@@ -9517,7 +9583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>635</v>
       </c>
@@ -9528,7 +9594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>636</v>
       </c>
@@ -9539,7 +9605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>637</v>
       </c>
@@ -9550,7 +9616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>638</v>
       </c>
@@ -9561,7 +9627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>639</v>
       </c>
@@ -9572,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>640</v>
       </c>
@@ -9583,7 +9649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>641</v>
       </c>
@@ -9594,7 +9660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>642</v>
       </c>
@@ -9605,7 +9671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>643</v>
       </c>
@@ -9616,7 +9682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>644</v>
       </c>
@@ -9627,7 +9693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>645</v>
       </c>
@@ -9638,7 +9704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>646</v>
       </c>
@@ -9649,7 +9715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>647</v>
       </c>
@@ -9660,7 +9726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>648</v>
       </c>
@@ -9671,7 +9737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>649</v>
       </c>
@@ -9682,7 +9748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>650</v>
       </c>
@@ -9693,7 +9759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>651</v>
       </c>
@@ -9704,7 +9770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>652</v>
       </c>
@@ -9715,7 +9781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>653</v>
       </c>
@@ -9726,7 +9792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>654</v>
       </c>
@@ -9737,7 +9803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>655</v>
       </c>
@@ -9748,7 +9814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>656</v>
       </c>
@@ -9759,7 +9825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>657</v>
       </c>
@@ -9770,7 +9836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>658</v>
       </c>
@@ -9781,7 +9847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>659</v>
       </c>
@@ -9792,7 +9858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>660</v>
       </c>
@@ -9803,7 +9869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>661</v>
       </c>
@@ -9814,7 +9880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>662</v>
       </c>
@@ -9825,7 +9891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>663</v>
       </c>
@@ -9836,7 +9902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>664</v>
       </c>
@@ -9847,7 +9913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>665</v>
       </c>
@@ -9858,7 +9924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>666</v>
       </c>
@@ -9869,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>667</v>
       </c>
@@ -9880,7 +9946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>668</v>
       </c>
@@ -9891,7 +9957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>669</v>
       </c>
@@ -9902,7 +9968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>670</v>
       </c>
@@ -9913,7 +9979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>671</v>
       </c>
@@ -9924,7 +9990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>672</v>
       </c>
@@ -9935,7 +10001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="658" spans="1:3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>673</v>
       </c>
@@ -9946,7 +10012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="659" spans="1:3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>674</v>
       </c>
@@ -9957,7 +10023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="660" spans="1:3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>675</v>
       </c>
@@ -9968,7 +10034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="661" spans="1:3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>676</v>
       </c>
@@ -9979,7 +10045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="662" spans="1:3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>677</v>
       </c>
@@ -9990,7 +10056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="663" spans="1:3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>678</v>
       </c>
@@ -10001,7 +10067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="664" spans="1:3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>679</v>
       </c>
@@ -10012,7 +10078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="665" spans="1:3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>680</v>
       </c>
@@ -10023,7 +10089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="666" spans="1:3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>681</v>
       </c>
@@ -10034,7 +10100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>682</v>
       </c>
@@ -10045,7 +10111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>683</v>
       </c>
@@ -10056,7 +10122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="669" spans="1:3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>684</v>
       </c>
@@ -10067,7 +10133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="670" spans="1:3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>685</v>
       </c>
@@ -10078,7 +10144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="671" spans="1:3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>686</v>
       </c>
@@ -10089,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>687</v>
       </c>
@@ -10100,7 +10166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>688</v>
       </c>
@@ -10111,7 +10177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>689</v>
       </c>
@@ -10122,7 +10188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>690</v>
       </c>
@@ -10133,7 +10199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>691</v>
       </c>
@@ -10144,7 +10210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>692</v>
       </c>
@@ -10155,7 +10221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>693</v>
       </c>
@@ -10166,7 +10232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>694</v>
       </c>
@@ -10177,7 +10243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>695</v>
       </c>
@@ -10188,7 +10254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>696</v>
       </c>
@@ -10199,7 +10265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>697</v>
       </c>
@@ -10210,7 +10276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>698</v>
       </c>
@@ -10221,7 +10287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>699</v>
       </c>
@@ -10232,7 +10298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>700</v>
       </c>
@@ -10243,7 +10309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>701</v>
       </c>
@@ -10254,7 +10320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>702</v>
       </c>
@@ -10265,7 +10331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>703</v>
       </c>
@@ -10276,7 +10342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>704</v>
       </c>
@@ -10287,7 +10353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>705</v>
       </c>
@@ -10298,7 +10364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="691" spans="1:3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>706</v>
       </c>
@@ -10309,7 +10375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="692" spans="1:3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>707</v>
       </c>
@@ -10320,7 +10386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>708</v>
       </c>
@@ -10331,7 +10397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="694" spans="1:3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>709</v>
       </c>
@@ -10342,7 +10408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>710</v>
       </c>
@@ -10353,7 +10419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>711</v>
       </c>
@@ -10364,7 +10430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>712</v>
       </c>
@@ -10375,7 +10441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>713</v>
       </c>
@@ -10386,7 +10452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>714</v>
       </c>
@@ -10397,7 +10463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>715</v>
       </c>
@@ -10408,7 +10474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>716</v>
       </c>
@@ -10419,7 +10485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>717</v>
       </c>
@@ -10430,7 +10496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>718</v>
       </c>
@@ -10441,7 +10507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>719</v>
       </c>
@@ -10452,7 +10518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>720</v>
       </c>
@@ -10463,7 +10529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>721</v>
       </c>
@@ -10474,7 +10540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="707" spans="1:3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>722</v>
       </c>
@@ -10485,7 +10551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="708" spans="1:3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>723</v>
       </c>
@@ -10496,7 +10562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="709" spans="1:3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>724</v>
       </c>
@@ -10507,7 +10573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="710" spans="1:3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>725</v>
       </c>
@@ -10518,7 +10584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="711" spans="1:3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>726</v>
       </c>
@@ -10529,7 +10595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="712" spans="1:3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>727</v>
       </c>
@@ -10540,7 +10606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="713" spans="1:3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>728</v>
       </c>
@@ -10551,7 +10617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="714" spans="1:3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>729</v>
       </c>
@@ -10562,7 +10628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>730</v>
       </c>
@@ -10573,7 +10639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="716" spans="1:3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>731</v>
       </c>
@@ -10584,7 +10650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="717" spans="1:3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>732</v>
       </c>
@@ -10595,7 +10661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="718" spans="1:3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>733</v>
       </c>
@@ -10606,7 +10672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="719" spans="1:3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>734</v>
       </c>
@@ -10617,7 +10683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="720" spans="1:3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>735</v>
       </c>
@@ -10628,7 +10694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="721" spans="1:3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>736</v>
       </c>

--- a/data/Agrifo.xlsx
+++ b/data/Agrifo.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swopil\Desktop\ViewFinders\Visualizer\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\View_Finders\Visualizer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2349A691-A0C4-4576-8D3E-C9F16CC519D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GenderWiseAge" sheetId="1" r:id="rId1"/>
     <sheet name="Geography" sheetId="2" r:id="rId2"/>
     <sheet name="view" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="739">
   <si>
     <t>ageGroup</t>
   </si>
@@ -2245,12 +2244,18 @@
   </si>
   <si>
     <t>2022-06-26</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2375,23 +2380,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2427,23 +2415,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2619,14 +2590,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2637,7 +2608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2648,7 +2619,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2665,14 +2636,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2688,8 +2661,14 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>737</v>
+      </c>
+      <c r="G1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2705,8 +2684,14 @@
       <c r="E2">
         <v>31.57</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>22.351114800000001</v>
+      </c>
+      <c r="G2">
+        <v>78.667742799999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2722,8 +2707,14 @@
       <c r="E3">
         <v>25.670000000000009</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>28.108392899999998</v>
+      </c>
+      <c r="G3">
+        <v>84.091713900000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2739,8 +2730,14 @@
       <c r="E4">
         <v>7.9600000000000009</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>54.702354499999998</v>
+      </c>
+      <c r="G4">
+        <v>-3.2765753000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2755,6 +2752,12 @@
       </c>
       <c r="E5">
         <v>1.5</v>
+      </c>
+      <c r="F5">
+        <v>49.4871968</v>
+      </c>
+      <c r="G5">
+        <v>31.271832100000001</v>
       </c>
     </row>
   </sheetData>
@@ -2763,18 +2766,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C721"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2796,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2840,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2851,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2862,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2873,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2884,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2928,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2939,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2950,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2961,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2972,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -3016,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -3027,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -3038,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -3071,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -3104,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -3126,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -3137,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -3148,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -3159,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -3192,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3203,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -3214,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -3225,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -3236,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -3247,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -3291,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -3302,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -3313,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -3324,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -3335,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -3357,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -3368,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -3379,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -3390,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -3401,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -3423,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -3445,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -3456,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -3467,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -3478,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -3489,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -3500,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -3511,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -3522,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -3533,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -3544,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -3555,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -3566,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -3577,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -3599,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -3610,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -3621,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -3632,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -3643,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -3654,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -3676,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -3687,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -3698,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -3709,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>101</v>
       </c>
@@ -3720,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -3731,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -3742,7 +3745,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -3753,7 +3756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>105</v>
       </c>
@@ -3764,7 +3767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>106</v>
       </c>
@@ -3775,7 +3778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>107</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -3797,7 +3800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -3808,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -3819,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>111</v>
       </c>
@@ -3830,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -3841,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>114</v>
       </c>
@@ -3863,7 +3866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>115</v>
       </c>
@@ -3874,7 +3877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>116</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -3896,7 +3899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>118</v>
       </c>
@@ -3907,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>119</v>
       </c>
@@ -3918,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>120</v>
       </c>
@@ -3929,7 +3932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>121</v>
       </c>
@@ -3940,7 +3943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -3951,7 +3954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>123</v>
       </c>
@@ -3962,7 +3965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>124</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -3984,7 +3987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -3995,7 +3998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>127</v>
       </c>
@@ -4006,7 +4009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -4017,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>129</v>
       </c>
@@ -4028,7 +4031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -4039,7 +4042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>131</v>
       </c>
@@ -4050,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>132</v>
       </c>
@@ -4061,7 +4064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>133</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>134</v>
       </c>
@@ -4083,7 +4086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>135</v>
       </c>
@@ -4094,7 +4097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>137</v>
       </c>
@@ -4116,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>138</v>
       </c>
@@ -4127,7 +4130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>139</v>
       </c>
@@ -4138,7 +4141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>140</v>
       </c>
@@ -4149,7 +4152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>141</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -4171,7 +4174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>143</v>
       </c>
@@ -4182,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>144</v>
       </c>
@@ -4193,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>145</v>
       </c>
@@ -4204,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>146</v>
       </c>
@@ -4215,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>147</v>
       </c>
@@ -4226,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>148</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>149</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>150</v>
       </c>
@@ -4259,7 +4262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>151</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>152</v>
       </c>
@@ -4281,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>153</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>154</v>
       </c>
@@ -4303,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>155</v>
       </c>
@@ -4314,7 +4317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>156</v>
       </c>
@@ -4325,7 +4328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>157</v>
       </c>
@@ -4336,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>158</v>
       </c>
@@ -4347,7 +4350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>159</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>160</v>
       </c>
@@ -4369,7 +4372,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>161</v>
       </c>
@@ -4380,7 +4383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>162</v>
       </c>
@@ -4391,7 +4394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>163</v>
       </c>
@@ -4402,7 +4405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>164</v>
       </c>
@@ -4413,7 +4416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>165</v>
       </c>
@@ -4424,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>166</v>
       </c>
@@ -4435,7 +4438,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>167</v>
       </c>
@@ -4446,7 +4449,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>168</v>
       </c>
@@ -4457,7 +4460,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>169</v>
       </c>
@@ -4468,7 +4471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>170</v>
       </c>
@@ -4479,7 +4482,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>171</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>172</v>
       </c>
@@ -4501,7 +4504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>173</v>
       </c>
@@ -4512,7 +4515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>174</v>
       </c>
@@ -4523,7 +4526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>175</v>
       </c>
@@ -4534,7 +4537,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>176</v>
       </c>
@@ -4545,7 +4548,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>177</v>
       </c>
@@ -4556,7 +4559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>178</v>
       </c>
@@ -4567,7 +4570,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>179</v>
       </c>
@@ -4578,7 +4581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>180</v>
       </c>
@@ -4589,7 +4592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>181</v>
       </c>
@@ -4600,7 +4603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>182</v>
       </c>
@@ -4611,7 +4614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>183</v>
       </c>
@@ -4622,7 +4625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>184</v>
       </c>
@@ -4633,7 +4636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>185</v>
       </c>
@@ -4644,7 +4647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>186</v>
       </c>
@@ -4655,7 +4658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>187</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>188</v>
       </c>
@@ -4677,7 +4680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>189</v>
       </c>
@@ -4688,7 +4691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>190</v>
       </c>
@@ -4699,7 +4702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>191</v>
       </c>
@@ -4710,7 +4713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>192</v>
       </c>
@@ -4721,7 +4724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>193</v>
       </c>
@@ -4732,7 +4735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>194</v>
       </c>
@@ -4743,7 +4746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>195</v>
       </c>
@@ -4754,7 +4757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>196</v>
       </c>
@@ -4765,7 +4768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>197</v>
       </c>
@@ -4776,7 +4779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>198</v>
       </c>
@@ -4787,7 +4790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>199</v>
       </c>
@@ -4798,7 +4801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>200</v>
       </c>
@@ -4809,7 +4812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>201</v>
       </c>
@@ -4820,7 +4823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>202</v>
       </c>
@@ -4831,7 +4834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>203</v>
       </c>
@@ -4842,7 +4845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>204</v>
       </c>
@@ -4853,7 +4856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>205</v>
       </c>
@@ -4864,7 +4867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>206</v>
       </c>
@@ -4875,7 +4878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>207</v>
       </c>
@@ -4886,7 +4889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>208</v>
       </c>
@@ -4897,7 +4900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>209</v>
       </c>
@@ -4908,7 +4911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>210</v>
       </c>
@@ -4919,7 +4922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>211</v>
       </c>
@@ -4930,7 +4933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>212</v>
       </c>
@@ -4941,7 +4944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>213</v>
       </c>
@@ -4952,7 +4955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>214</v>
       </c>
@@ -4963,7 +4966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>215</v>
       </c>
@@ -4974,7 +4977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>216</v>
       </c>
@@ -4985,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>217</v>
       </c>
@@ -4996,7 +4999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>218</v>
       </c>
@@ -5007,7 +5010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>219</v>
       </c>
@@ -5018,7 +5021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>220</v>
       </c>
@@ -5029,7 +5032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>221</v>
       </c>
@@ -5040,7 +5043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>222</v>
       </c>
@@ -5051,7 +5054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>223</v>
       </c>
@@ -5062,7 +5065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>224</v>
       </c>
@@ -5073,7 +5076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>225</v>
       </c>
@@ -5084,7 +5087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>226</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>227</v>
       </c>
@@ -5106,7 +5109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>228</v>
       </c>
@@ -5117,7 +5120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>229</v>
       </c>
@@ -5128,7 +5131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>230</v>
       </c>
@@ -5139,7 +5142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>231</v>
       </c>
@@ -5150,7 +5153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>232</v>
       </c>
@@ -5161,7 +5164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>233</v>
       </c>
@@ -5172,7 +5175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>234</v>
       </c>
@@ -5183,7 +5186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>235</v>
       </c>
@@ -5194,7 +5197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>236</v>
       </c>
@@ -5205,7 +5208,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>237</v>
       </c>
@@ -5216,7 +5219,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>238</v>
       </c>
@@ -5227,7 +5230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>239</v>
       </c>
@@ -5238,7 +5241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>240</v>
       </c>
@@ -5249,7 +5252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>241</v>
       </c>
@@ -5260,7 +5263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>242</v>
       </c>
@@ -5271,7 +5274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>243</v>
       </c>
@@ -5282,7 +5285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>244</v>
       </c>
@@ -5293,7 +5296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>245</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>246</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>247</v>
       </c>
@@ -5326,7 +5329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>248</v>
       </c>
@@ -5337,7 +5340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>249</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>250</v>
       </c>
@@ -5359,7 +5362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>251</v>
       </c>
@@ -5370,7 +5373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>252</v>
       </c>
@@ -5381,7 +5384,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>253</v>
       </c>
@@ -5392,7 +5395,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>254</v>
       </c>
@@ -5403,7 +5406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>255</v>
       </c>
@@ -5414,7 +5417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>256</v>
       </c>
@@ -5425,7 +5428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>257</v>
       </c>
@@ -5436,7 +5439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>258</v>
       </c>
@@ -5447,7 +5450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>259</v>
       </c>
@@ -5458,7 +5461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>260</v>
       </c>
@@ -5469,7 +5472,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>261</v>
       </c>
@@ -5480,7 +5483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>262</v>
       </c>
@@ -5491,7 +5494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>263</v>
       </c>
@@ -5502,7 +5505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>264</v>
       </c>
@@ -5513,7 +5516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>265</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>266</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>267</v>
       </c>
@@ -5546,7 +5549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>268</v>
       </c>
@@ -5557,7 +5560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>269</v>
       </c>
@@ -5568,7 +5571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>270</v>
       </c>
@@ -5579,7 +5582,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>271</v>
       </c>
@@ -5590,7 +5593,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>272</v>
       </c>
@@ -5601,7 +5604,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>273</v>
       </c>
@@ -5612,7 +5615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>274</v>
       </c>
@@ -5623,7 +5626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>275</v>
       </c>
@@ -5634,7 +5637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>276</v>
       </c>
@@ -5645,7 +5648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>277</v>
       </c>
@@ -5656,7 +5659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>278</v>
       </c>
@@ -5667,7 +5670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>279</v>
       </c>
@@ -5678,7 +5681,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>280</v>
       </c>
@@ -5689,7 +5692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>281</v>
       </c>
@@ -5700,7 +5703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>282</v>
       </c>
@@ -5711,7 +5714,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>283</v>
       </c>
@@ -5722,7 +5725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>284</v>
       </c>
@@ -5733,7 +5736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>285</v>
       </c>
@@ -5744,7 +5747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>286</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>287</v>
       </c>
@@ -5766,7 +5769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>288</v>
       </c>
@@ -5777,7 +5780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>289</v>
       </c>
@@ -5788,7 +5791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>290</v>
       </c>
@@ -5799,7 +5802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>291</v>
       </c>
@@ -5810,7 +5813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>292</v>
       </c>
@@ -5821,7 +5824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>293</v>
       </c>
@@ -5832,7 +5835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>294</v>
       </c>
@@ -5843,7 +5846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>295</v>
       </c>
@@ -5854,7 +5857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>296</v>
       </c>
@@ -5865,7 +5868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>297</v>
       </c>
@@ -5876,7 +5879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>298</v>
       </c>
@@ -5887,7 +5890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>299</v>
       </c>
@@ -5898,7 +5901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>300</v>
       </c>
@@ -5909,7 +5912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>301</v>
       </c>
@@ -5920,7 +5923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>302</v>
       </c>
@@ -5931,7 +5934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>303</v>
       </c>
@@ -5942,7 +5945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>304</v>
       </c>
@@ -5953,7 +5956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>305</v>
       </c>
@@ -5964,7 +5967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>306</v>
       </c>
@@ -5975,7 +5978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>307</v>
       </c>
@@ -5986,7 +5989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>308</v>
       </c>
@@ -5997,7 +6000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>309</v>
       </c>
@@ -6008,7 +6011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>310</v>
       </c>
@@ -6019,7 +6022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>311</v>
       </c>
@@ -6030,7 +6033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>312</v>
       </c>
@@ -6041,7 +6044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>313</v>
       </c>
@@ -6052,7 +6055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>314</v>
       </c>
@@ -6063,7 +6066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>315</v>
       </c>
@@ -6074,7 +6077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>316</v>
       </c>
@@ -6085,7 +6088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>317</v>
       </c>
@@ -6096,7 +6099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>318</v>
       </c>
@@ -6107,7 +6110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>319</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>320</v>
       </c>
@@ -6129,7 +6132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>321</v>
       </c>
@@ -6140,7 +6143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>322</v>
       </c>
@@ -6151,7 +6154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>323</v>
       </c>
@@ -6162,7 +6165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>324</v>
       </c>
@@ -6173,7 +6176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>325</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>326</v>
       </c>
@@ -6195,7 +6198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>327</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>328</v>
       </c>
@@ -6217,7 +6220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>329</v>
       </c>
@@ -6228,7 +6231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>330</v>
       </c>
@@ -6239,7 +6242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>331</v>
       </c>
@@ -6250,7 +6253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>332</v>
       </c>
@@ -6261,7 +6264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>333</v>
       </c>
@@ -6272,7 +6275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>334</v>
       </c>
@@ -6283,7 +6286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>335</v>
       </c>
@@ -6294,7 +6297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>336</v>
       </c>
@@ -6305,7 +6308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>337</v>
       </c>
@@ -6316,7 +6319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>338</v>
       </c>
@@ -6327,7 +6330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>339</v>
       </c>
@@ -6338,7 +6341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>340</v>
       </c>
@@ -6349,7 +6352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>341</v>
       </c>
@@ -6360,7 +6363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>342</v>
       </c>
@@ -6371,7 +6374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>343</v>
       </c>
@@ -6382,7 +6385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>344</v>
       </c>
@@ -6393,7 +6396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>345</v>
       </c>
@@ -6404,7 +6407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>346</v>
       </c>
@@ -6415,7 +6418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>347</v>
       </c>
@@ -6426,7 +6429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>348</v>
       </c>
@@ -6437,7 +6440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>349</v>
       </c>
@@ -6448,7 +6451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>350</v>
       </c>
@@ -6459,7 +6462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>351</v>
       </c>
@@ -6470,7 +6473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>352</v>
       </c>
@@ -6481,7 +6484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>353</v>
       </c>
@@ -6492,7 +6495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>354</v>
       </c>
@@ -6503,7 +6506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>355</v>
       </c>
@@ -6514,7 +6517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>356</v>
       </c>
@@ -6525,7 +6528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>357</v>
       </c>
@@ -6536,7 +6539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>358</v>
       </c>
@@ -6547,7 +6550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>359</v>
       </c>
@@ -6558,7 +6561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>360</v>
       </c>
@@ -6569,7 +6572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>361</v>
       </c>
@@ -6580,7 +6583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>362</v>
       </c>
@@ -6591,7 +6594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>363</v>
       </c>
@@ -6602,7 +6605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>364</v>
       </c>
@@ -6613,7 +6616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>365</v>
       </c>
@@ -6624,7 +6627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>366</v>
       </c>
@@ -6635,7 +6638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>367</v>
       </c>
@@ -6646,7 +6649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>368</v>
       </c>
@@ -6657,7 +6660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>369</v>
       </c>
@@ -6668,7 +6671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>370</v>
       </c>
@@ -6679,7 +6682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>371</v>
       </c>
@@ -6690,7 +6693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>372</v>
       </c>
@@ -6701,7 +6704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>373</v>
       </c>
@@ -6712,7 +6715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>374</v>
       </c>
@@ -6723,7 +6726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>375</v>
       </c>
@@ -6734,7 +6737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>376</v>
       </c>
@@ -6745,7 +6748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>377</v>
       </c>
@@ -6756,7 +6759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>378</v>
       </c>
@@ -6767,7 +6770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>379</v>
       </c>
@@ -6778,7 +6781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>380</v>
       </c>
@@ -6789,7 +6792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>381</v>
       </c>
@@ -6800,7 +6803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>382</v>
       </c>
@@ -6811,7 +6814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>383</v>
       </c>
@@ -6822,7 +6825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>384</v>
       </c>
@@ -6833,7 +6836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>385</v>
       </c>
@@ -6844,7 +6847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>386</v>
       </c>
@@ -6855,7 +6858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>387</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>388</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>389</v>
       </c>
@@ -6888,7 +6891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>390</v>
       </c>
@@ -6899,7 +6902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>391</v>
       </c>
@@ -6910,7 +6913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>392</v>
       </c>
@@ -6921,7 +6924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>393</v>
       </c>
@@ -6932,7 +6935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>394</v>
       </c>
@@ -6943,7 +6946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>395</v>
       </c>
@@ -6954,7 +6957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>396</v>
       </c>
@@ -6965,7 +6968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>397</v>
       </c>
@@ -6976,7 +6979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>398</v>
       </c>
@@ -6987,7 +6990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>399</v>
       </c>
@@ -6998,7 +7001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>400</v>
       </c>
@@ -7009,7 +7012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>401</v>
       </c>
@@ -7020,7 +7023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>402</v>
       </c>
@@ -7031,7 +7034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>403</v>
       </c>
@@ -7042,7 +7045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>404</v>
       </c>
@@ -7053,7 +7056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>405</v>
       </c>
@@ -7064,7 +7067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>406</v>
       </c>
@@ -7075,7 +7078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>407</v>
       </c>
@@ -7086,7 +7089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>408</v>
       </c>
@@ -7097,7 +7100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>409</v>
       </c>
@@ -7108,7 +7111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>410</v>
       </c>
@@ -7119,7 +7122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>411</v>
       </c>
@@ -7130,7 +7133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>412</v>
       </c>
@@ -7141,7 +7144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>413</v>
       </c>
@@ -7152,7 +7155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>414</v>
       </c>
@@ -7163,7 +7166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>415</v>
       </c>
@@ -7174,7 +7177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>416</v>
       </c>
@@ -7185,7 +7188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>417</v>
       </c>
@@ -7196,7 +7199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>418</v>
       </c>
@@ -7207,7 +7210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>419</v>
       </c>
@@ -7218,7 +7221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>420</v>
       </c>
@@ -7229,7 +7232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>421</v>
       </c>
@@ -7240,7 +7243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>422</v>
       </c>
@@ -7251,7 +7254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>423</v>
       </c>
@@ -7262,7 +7265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>424</v>
       </c>
@@ -7273,7 +7276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>425</v>
       </c>
@@ -7284,7 +7287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>426</v>
       </c>
@@ -7295,7 +7298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>427</v>
       </c>
@@ -7306,7 +7309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>428</v>
       </c>
@@ -7317,7 +7320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>429</v>
       </c>
@@ -7328,7 +7331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>430</v>
       </c>
@@ -7339,7 +7342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>431</v>
       </c>
@@ -7350,7 +7353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>432</v>
       </c>
@@ -7361,7 +7364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>433</v>
       </c>
@@ -7372,7 +7375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>434</v>
       </c>
@@ -7383,7 +7386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>435</v>
       </c>
@@ -7394,7 +7397,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>436</v>
       </c>
@@ -7405,7 +7408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>437</v>
       </c>
@@ -7416,7 +7419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>438</v>
       </c>
@@ -7427,7 +7430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>439</v>
       </c>
@@ -7438,7 +7441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>440</v>
       </c>
@@ -7449,7 +7452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>441</v>
       </c>
@@ -7460,7 +7463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>442</v>
       </c>
@@ -7471,7 +7474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>443</v>
       </c>
@@ -7482,7 +7485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>444</v>
       </c>
@@ -7493,7 +7496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>445</v>
       </c>
@@ -7504,7 +7507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>446</v>
       </c>
@@ -7515,7 +7518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>447</v>
       </c>
@@ -7526,7 +7529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>448</v>
       </c>
@@ -7537,7 +7540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>449</v>
       </c>
@@ -7548,7 +7551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>450</v>
       </c>
@@ -7559,7 +7562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>451</v>
       </c>
@@ -7570,7 +7573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>452</v>
       </c>
@@ -7581,7 +7584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>453</v>
       </c>
@@ -7592,7 +7595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>454</v>
       </c>
@@ -7603,7 +7606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>455</v>
       </c>
@@ -7614,7 +7617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>456</v>
       </c>
@@ -7625,7 +7628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>457</v>
       </c>
@@ -7636,7 +7639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>458</v>
       </c>
@@ -7647,7 +7650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>459</v>
       </c>
@@ -7658,7 +7661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>460</v>
       </c>
@@ -7669,7 +7672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>461</v>
       </c>
@@ -7680,7 +7683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>462</v>
       </c>
@@ -7691,7 +7694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>463</v>
       </c>
@@ -7702,7 +7705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>464</v>
       </c>
@@ -7713,7 +7716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>465</v>
       </c>
@@ -7724,7 +7727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>466</v>
       </c>
@@ -7735,7 +7738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>467</v>
       </c>
@@ -7746,7 +7749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>468</v>
       </c>
@@ -7757,7 +7760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>469</v>
       </c>
@@ -7768,7 +7771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>470</v>
       </c>
@@ -7779,7 +7782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>471</v>
       </c>
@@ -7790,7 +7793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>472</v>
       </c>
@@ -7801,7 +7804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>473</v>
       </c>
@@ -7812,7 +7815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>474</v>
       </c>
@@ -7823,7 +7826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>475</v>
       </c>
@@ -7834,7 +7837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>476</v>
       </c>
@@ -7845,7 +7848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>477</v>
       </c>
@@ -7856,7 +7859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>478</v>
       </c>
@@ -7867,7 +7870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>479</v>
       </c>
@@ -7878,7 +7881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>480</v>
       </c>
@@ -7889,7 +7892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>481</v>
       </c>
@@ -7900,7 +7903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>482</v>
       </c>
@@ -7911,7 +7914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>483</v>
       </c>
@@ -7922,7 +7925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>484</v>
       </c>
@@ -7933,7 +7936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>485</v>
       </c>
@@ -7944,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>486</v>
       </c>
@@ -7955,7 +7958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>487</v>
       </c>
@@ -7966,7 +7969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>488</v>
       </c>
@@ -7977,7 +7980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>489</v>
       </c>
@@ -7988,7 +7991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>490</v>
       </c>
@@ -7999,7 +8002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>491</v>
       </c>
@@ -8010,7 +8013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>492</v>
       </c>
@@ -8021,7 +8024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>493</v>
       </c>
@@ -8032,7 +8035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>494</v>
       </c>
@@ -8043,7 +8046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>495</v>
       </c>
@@ -8054,7 +8057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>496</v>
       </c>
@@ -8065,7 +8068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>497</v>
       </c>
@@ -8076,7 +8079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>498</v>
       </c>
@@ -8087,7 +8090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>499</v>
       </c>
@@ -8098,7 +8101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>500</v>
       </c>
@@ -8109,7 +8112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>501</v>
       </c>
@@ -8120,7 +8123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>502</v>
       </c>
@@ -8131,7 +8134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>503</v>
       </c>
@@ -8142,7 +8145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>504</v>
       </c>
@@ -8153,7 +8156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>505</v>
       </c>
@@ -8164,7 +8167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>506</v>
       </c>
@@ -8175,7 +8178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>507</v>
       </c>
@@ -8186,7 +8189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>508</v>
       </c>
@@ -8197,7 +8200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>509</v>
       </c>
@@ -8208,7 +8211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>510</v>
       </c>
@@ -8219,7 +8222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>511</v>
       </c>
@@ -8230,7 +8233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>512</v>
       </c>
@@ -8241,7 +8244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>513</v>
       </c>
@@ -8252,7 +8255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>514</v>
       </c>
@@ -8263,7 +8266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>515</v>
       </c>
@@ -8274,7 +8277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>516</v>
       </c>
@@ -8285,7 +8288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>517</v>
       </c>
@@ -8296,7 +8299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>518</v>
       </c>
@@ -8307,7 +8310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>519</v>
       </c>
@@ -8318,7 +8321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>520</v>
       </c>
@@ -8329,7 +8332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>521</v>
       </c>
@@ -8340,7 +8343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>522</v>
       </c>
@@ -8351,7 +8354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>523</v>
       </c>
@@ -8362,7 +8365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>524</v>
       </c>
@@ -8373,7 +8376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>525</v>
       </c>
@@ -8384,7 +8387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>526</v>
       </c>
@@ -8395,7 +8398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>527</v>
       </c>
@@ -8406,7 +8409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>528</v>
       </c>
@@ -8417,7 +8420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>529</v>
       </c>
@@ -8428,7 +8431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>530</v>
       </c>
@@ -8439,7 +8442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>531</v>
       </c>
@@ -8450,7 +8453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>532</v>
       </c>
@@ -8461,7 +8464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>533</v>
       </c>
@@ -8472,7 +8475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>534</v>
       </c>
@@ -8483,7 +8486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>535</v>
       </c>
@@ -8494,7 +8497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>536</v>
       </c>
@@ -8505,7 +8508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>537</v>
       </c>
@@ -8516,7 +8519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>538</v>
       </c>
@@ -8527,7 +8530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>539</v>
       </c>
@@ -8538,7 +8541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>540</v>
       </c>
@@ -8549,7 +8552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>541</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>542</v>
       </c>
@@ -8571,7 +8574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>543</v>
       </c>
@@ -8582,7 +8585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>544</v>
       </c>
@@ -8593,7 +8596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>545</v>
       </c>
@@ -8604,7 +8607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>546</v>
       </c>
@@ -8615,7 +8618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>547</v>
       </c>
@@ -8626,7 +8629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>548</v>
       </c>
@@ -8637,7 +8640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>549</v>
       </c>
@@ -8648,7 +8651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>550</v>
       </c>
@@ -8659,7 +8662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>551</v>
       </c>
@@ -8670,7 +8673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>552</v>
       </c>
@@ -8681,7 +8684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>553</v>
       </c>
@@ -8692,7 +8695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>554</v>
       </c>
@@ -8703,7 +8706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>555</v>
       </c>
@@ -8714,7 +8717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>556</v>
       </c>
@@ -8725,7 +8728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>557</v>
       </c>
@@ -8736,7 +8739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>558</v>
       </c>
@@ -8747,7 +8750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>559</v>
       </c>
@@ -8758,7 +8761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>560</v>
       </c>
@@ -8769,7 +8772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>561</v>
       </c>
@@ -8780,7 +8783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>562</v>
       </c>
@@ -8791,7 +8794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>563</v>
       </c>
@@ -8802,7 +8805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>564</v>
       </c>
@@ -8813,7 +8816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>565</v>
       </c>
@@ -8824,7 +8827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>566</v>
       </c>
@@ -8835,7 +8838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>567</v>
       </c>
@@ -8846,7 +8849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>568</v>
       </c>
@@ -8857,7 +8860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>569</v>
       </c>
@@ -8868,7 +8871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>570</v>
       </c>
@@ -8879,7 +8882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>571</v>
       </c>
@@ -8890,7 +8893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>572</v>
       </c>
@@ -8901,7 +8904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>573</v>
       </c>
@@ -8912,7 +8915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>574</v>
       </c>
@@ -8923,7 +8926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>575</v>
       </c>
@@ -8934,7 +8937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>576</v>
       </c>
@@ -8945,7 +8948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>577</v>
       </c>
@@ -8956,7 +8959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>578</v>
       </c>
@@ -8967,7 +8970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>579</v>
       </c>
@@ -8978,7 +8981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>580</v>
       </c>
@@ -8989,7 +8992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>581</v>
       </c>
@@ -9000,7 +9003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>582</v>
       </c>
@@ -9011,7 +9014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>583</v>
       </c>
@@ -9022,7 +9025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>584</v>
       </c>
@@ -9033,7 +9036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>585</v>
       </c>
@@ -9044,7 +9047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>586</v>
       </c>
@@ -9055,7 +9058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>587</v>
       </c>
@@ -9066,7 +9069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>588</v>
       </c>
@@ -9077,7 +9080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>589</v>
       </c>
@@ -9088,7 +9091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>590</v>
       </c>
@@ -9099,7 +9102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>591</v>
       </c>
@@ -9110,7 +9113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>592</v>
       </c>
@@ -9121,7 +9124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>593</v>
       </c>
@@ -9132,7 +9135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>594</v>
       </c>
@@ -9143,7 +9146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>595</v>
       </c>
@@ -9154,7 +9157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>596</v>
       </c>
@@ -9165,7 +9168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>597</v>
       </c>
@@ -9176,7 +9179,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>598</v>
       </c>
@@ -9187,7 +9190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>599</v>
       </c>
@@ -9198,7 +9201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>600</v>
       </c>
@@ -9209,7 +9212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>601</v>
       </c>
@@ -9220,7 +9223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>602</v>
       </c>
@@ -9231,7 +9234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>603</v>
       </c>
@@ -9242,7 +9245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>604</v>
       </c>
@@ -9253,7 +9256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>605</v>
       </c>
@@ -9264,7 +9267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>606</v>
       </c>
@@ -9275,7 +9278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>607</v>
       </c>
@@ -9286,7 +9289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>608</v>
       </c>
@@ -9297,7 +9300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>609</v>
       </c>
@@ -9308,7 +9311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>610</v>
       </c>
@@ -9319,7 +9322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>611</v>
       </c>
@@ -9330,7 +9333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>612</v>
       </c>
@@ -9341,7 +9344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>613</v>
       </c>
@@ -9352,7 +9355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>614</v>
       </c>
@@ -9363,7 +9366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>615</v>
       </c>
@@ -9374,7 +9377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>616</v>
       </c>
@@ -9385,7 +9388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>617</v>
       </c>
@@ -9396,7 +9399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>618</v>
       </c>
@@ -9407,7 +9410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>619</v>
       </c>
@@ -9418,7 +9421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>620</v>
       </c>
@@ -9429,7 +9432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>621</v>
       </c>
@@ -9440,7 +9443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>622</v>
       </c>
@@ -9451,7 +9454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>623</v>
       </c>
@@ -9462,7 +9465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>624</v>
       </c>
@@ -9473,7 +9476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>625</v>
       </c>
@@ -9484,7 +9487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>626</v>
       </c>
@@ -9495,7 +9498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>627</v>
       </c>
@@ -9506,7 +9509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>628</v>
       </c>
@@ -9517,7 +9520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>629</v>
       </c>
@@ -9528,7 +9531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>630</v>
       </c>
@@ -9539,7 +9542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>631</v>
       </c>
@@ -9550,7 +9553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>632</v>
       </c>
@@ -9561,7 +9564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>633</v>
       </c>
@@ -9572,7 +9575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>634</v>
       </c>
@@ -9583,7 +9586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>635</v>
       </c>
@@ -9594,7 +9597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>636</v>
       </c>
@@ -9605,7 +9608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>637</v>
       </c>
@@ -9616,7 +9619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>638</v>
       </c>
@@ -9627,7 +9630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>639</v>
       </c>
@@ -9638,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>640</v>
       </c>
@@ -9649,7 +9652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>641</v>
       </c>
@@ -9660,7 +9663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>642</v>
       </c>
@@ -9671,7 +9674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>643</v>
       </c>
@@ -9682,7 +9685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>644</v>
       </c>
@@ -9693,7 +9696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>645</v>
       </c>
@@ -9704,7 +9707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>646</v>
       </c>
@@ -9715,7 +9718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>647</v>
       </c>
@@ -9726,7 +9729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>648</v>
       </c>
@@ -9737,7 +9740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>649</v>
       </c>
@@ -9748,7 +9751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>650</v>
       </c>
@@ -9759,7 +9762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>651</v>
       </c>
@@ -9770,7 +9773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>652</v>
       </c>
@@ -9781,7 +9784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>653</v>
       </c>
@@ -9792,7 +9795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>654</v>
       </c>
@@ -9803,7 +9806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>655</v>
       </c>
@@ -9814,7 +9817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>656</v>
       </c>
@@ -9825,7 +9828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>657</v>
       </c>
@@ -9836,7 +9839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>658</v>
       </c>
@@ -9847,7 +9850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>659</v>
       </c>
@@ -9858,7 +9861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>660</v>
       </c>
@@ -9869,7 +9872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>661</v>
       </c>
@@ -9880,7 +9883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>662</v>
       </c>
@@ -9891,7 +9894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>663</v>
       </c>
@@ -9902,7 +9905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>664</v>
       </c>
@@ -9913,7 +9916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>665</v>
       </c>
@@ -9924,7 +9927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>666</v>
       </c>
@@ -9935,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>667</v>
       </c>
@@ -9946,7 +9949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>668</v>
       </c>
@@ -9957,7 +9960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>669</v>
       </c>
@@ -9968,7 +9971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>670</v>
       </c>
@@ -9979,7 +9982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>671</v>
       </c>
@@ -9990,7 +9993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>672</v>
       </c>
@@ -10001,7 +10004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>673</v>
       </c>
@@ -10012,7 +10015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>674</v>
       </c>
@@ -10023,7 +10026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>675</v>
       </c>
@@ -10034,7 +10037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>676</v>
       </c>
@@ -10045,7 +10048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>677</v>
       </c>
@@ -10056,7 +10059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>678</v>
       </c>
@@ -10067,7 +10070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>679</v>
       </c>
@@ -10078,7 +10081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>680</v>
       </c>
@@ -10089,7 +10092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>681</v>
       </c>
@@ -10100,7 +10103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>682</v>
       </c>
@@ -10111,7 +10114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>683</v>
       </c>
@@ -10122,7 +10125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>684</v>
       </c>
@@ -10133,7 +10136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>685</v>
       </c>
@@ -10144,7 +10147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>686</v>
       </c>
@@ -10155,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>687</v>
       </c>
@@ -10166,7 +10169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>688</v>
       </c>
@@ -10177,7 +10180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>689</v>
       </c>
@@ -10188,7 +10191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>690</v>
       </c>
@@ -10199,7 +10202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>691</v>
       </c>
@@ -10210,7 +10213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>692</v>
       </c>
@@ -10221,7 +10224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>693</v>
       </c>
@@ -10232,7 +10235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>694</v>
       </c>
@@ -10243,7 +10246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>695</v>
       </c>
@@ -10254,7 +10257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>696</v>
       </c>
@@ -10265,7 +10268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>697</v>
       </c>
@@ -10276,7 +10279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>698</v>
       </c>
@@ -10287,7 +10290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>699</v>
       </c>
@@ -10298,7 +10301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>700</v>
       </c>
@@ -10309,7 +10312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>701</v>
       </c>
@@ -10320,7 +10323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>702</v>
       </c>
@@ -10331,7 +10334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>703</v>
       </c>
@@ -10342,7 +10345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>704</v>
       </c>
@@ -10353,7 +10356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>705</v>
       </c>
@@ -10364,7 +10367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>706</v>
       </c>
@@ -10375,7 +10378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>707</v>
       </c>
@@ -10386,7 +10389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>708</v>
       </c>
@@ -10397,7 +10400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>709</v>
       </c>
@@ -10408,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>710</v>
       </c>
@@ -10419,7 +10422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>711</v>
       </c>
@@ -10430,7 +10433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>712</v>
       </c>
@@ -10441,7 +10444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>713</v>
       </c>
@@ -10452,7 +10455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>714</v>
       </c>
@@ -10463,7 +10466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>715</v>
       </c>
@@ -10474,7 +10477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>716</v>
       </c>
@@ -10485,7 +10488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>717</v>
       </c>
@@ -10496,7 +10499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>718</v>
       </c>
@@ -10507,7 +10510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>719</v>
       </c>
@@ -10518,7 +10521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>720</v>
       </c>
@@ -10529,7 +10532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>721</v>
       </c>
@@ -10540,7 +10543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>722</v>
       </c>
@@ -10551,7 +10554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>723</v>
       </c>
@@ -10562,7 +10565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>724</v>
       </c>
@@ -10573,7 +10576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>725</v>
       </c>
@@ -10584,7 +10587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>726</v>
       </c>
@@ -10595,7 +10598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>727</v>
       </c>
@@ -10606,7 +10609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>728</v>
       </c>
@@ -10617,7 +10620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>729</v>
       </c>
@@ -10628,7 +10631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>730</v>
       </c>
@@ -10639,7 +10642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>731</v>
       </c>
@@ -10650,7 +10653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>732</v>
       </c>
@@ -10661,7 +10664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>733</v>
       </c>
@@ -10672,7 +10675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>734</v>
       </c>
@@ -10683,7 +10686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>735</v>
       </c>
@@ -10694,7 +10697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>736</v>
       </c>
